--- a/source/我博客的标签和categories.xlsx
+++ b/source/我博客的标签和categories.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyt\Documents\GitHub Repositories\superlova.github.io\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F7199-5222-4596-A222-C5457C4F9FE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9735F5F7-FBE0-4E33-B4D6-D5D4C67C5B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{4D0B95DE-E132-444A-A219-CC0F3237F2C5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,15 @@
   <si>
     <t>datawhale</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Recommendation System</t>
+  </si>
+  <si>
+    <t>Data Augmentation</t>
   </si>
 </sst>
 </file>
@@ -645,7 +654,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -745,6 +754,9 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -816,6 +828,9 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
@@ -827,6 +842,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
       <c r="H8" t="s">
         <v>31</v>
       </c>

--- a/source/我博客的标签和categories.xlsx
+++ b/source/我博客的标签和categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyt\Documents\GitHub Repositories\superlova.github.io\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9735F5F7-FBE0-4E33-B4D6-D5D4C67C5B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43EBB1E-0FF0-4F6E-907A-A28BA5AC7697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{4D0B95DE-E132-444A-A219-CC0F3237F2C5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,51 @@
   </si>
   <si>
     <t>Data Augmentation</t>
+  </si>
+  <si>
+    <t>Digit Recognition</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Verification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice</t>
+  </si>
+  <si>
+    <t>移动硬盘</t>
+  </si>
+  <si>
+    <t>concatenate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuzz Testing</t>
+  </si>
+  <si>
+    <t>Robustness</t>
+  </si>
+  <si>
+    <t>Deep Neural Networks</t>
+  </si>
+  <si>
+    <t>Adversarial Attacks</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Text Classification</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Bagging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -651,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1DB48-2DFC-4ED4-8546-E0DC9CD3BD21}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -772,6 +817,9 @@
       <c r="K3" t="s">
         <v>26</v>
       </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
@@ -783,6 +831,9 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
       <c r="G4" t="s">
         <v>33</v>
       </c>
@@ -798,11 +849,14 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
       <c r="G5" t="s">
         <v>34</v>
       </c>
@@ -815,11 +869,14 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
@@ -829,11 +886,14 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
       <c r="H7" t="s">
         <v>30</v>
       </c>
@@ -842,19 +902,40 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
       <c r="C8" t="s">
         <v>76</v>
       </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
       <c r="H8" t="s">
         <v>31</v>
       </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
       <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
       <c r="H10" t="s">
         <v>35</v>
       </c>
@@ -887,6 +968,16 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H16" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
+      <c r="H18" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/source/我博客的标签和categories.xlsx
+++ b/source/我博客的标签和categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyt\Documents\GitHub Repositories\superlova.github.io\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43EBB1E-0FF0-4F6E-907A-A28BA5AC7697}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618836C-5C1A-4AD3-B111-3B47AF615481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{4D0B95DE-E132-444A-A219-CC0F3237F2C5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,16 @@
   <si>
     <t>Bagging</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMDB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveModel</t>
+  </si>
+  <si>
+    <t>TensorFlow</t>
   </si>
 </sst>
 </file>
@@ -699,7 +709,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -919,6 +929,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
       <c r="C9" t="s">
         <v>90</v>
       </c>
@@ -930,6 +943,9 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
@@ -941,6 +957,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
       <c r="H11" t="s">
         <v>67</v>
       </c>

--- a/source/我博客的标签和categories.xlsx
+++ b/source/我博客的标签和categories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyt\Documents\GitHub Repositories\superlova.github.io\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618836C-5C1A-4AD3-B111-3B47AF615481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF7EFD9-62D0-461C-8004-10FF4B3B265B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{4D0B95DE-E132-444A-A219-CC0F3237F2C5}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,18 @@
   </si>
   <si>
     <t>TensorFlow</t>
+  </si>
+  <si>
+    <t>Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keras</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -709,7 +721,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -864,6 +876,9 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
       <c r="F5" t="s">
         <v>80</v>
       </c>
@@ -884,6 +899,9 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
       <c r="F6" t="s">
         <v>84</v>
       </c>
@@ -965,6 +983,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
       <c r="H12" t="s">
         <v>68</v>
       </c>

--- a/source/我博客的标签和categories.xlsx
+++ b/source/我博客的标签和categories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyt\Documents\GitHub Repositories\superlova.github.io\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF7EFD9-62D0-461C-8004-10FF4B3B265B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2E93D4-0D74-4D0B-8D9A-E9C1DACAE605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" xr2:uid="{4D0B95DE-E132-444A-A219-CC0F3237F2C5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160" activeTab="1" xr2:uid="{4D0B95DE-E132-444A-A219-CC0F3237F2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="标签" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,12 @@
   <si>
     <t>Keras</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Data Science</t>
   </si>
 </sst>
 </file>
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF1DB48-2DFC-4ED4-8546-E0DC9CD3BD21}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -978,6 +984,9 @@
       <c r="B11" t="s">
         <v>94</v>
       </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
       <c r="H11" t="s">
         <v>67</v>
       </c>
@@ -985,6 +994,9 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
       </c>
       <c r="H12" t="s">
         <v>68</v>
@@ -1031,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63CC3E8-6D10-4C50-B1BE-58445F00363C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
